--- a/loaded_influencer_data/summer_akram/summer_akram_video.xlsx
+++ b/loaded_influencer_data/summer_akram/summer_akram_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2494 +506,2551 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/video/7473505352470760726</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17900</v>
+      </c>
+      <c r="C2" t="n">
+        <v>925</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>177</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The dreamiest hotel in Ibiza and the food was so good too! 🤍💭
+Casita Blanca 📍
+#ibiza #wheretostay</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5.279329608938547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.167597765363128</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.111731843575419</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.988826815642458</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7385870810872810784</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>132800</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4396</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2695</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B3" t="n">
+        <v>133100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4399</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2698</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>A must visit if you’re in crete! Unreal food with unreal views 🍹🐚
 #cretegreece #greece #creterestaurant</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>3.337349397590361</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.310240963855422</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.029367469879518</v>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>3.320811419984974</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.305033809166041</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01577761081893313</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.027047332832457</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2024-6-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7361695753309326624</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>157900</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="n">
+        <v>158700</v>
+      </c>
+      <c r="C4" t="n">
         <v>10500</v>
       </c>
-      <c r="D3" t="n">
-        <v>91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1910</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="D4" t="n">
+        <v>93</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1914</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Would definitely recommend hiring your own boat in when in Como!
 #lakecomo #lakecomoitaly #lakecomoboat</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>6.707409753008233</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.649778340721976</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05763141228625712</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.209626345788474</v>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>6.674858223062381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.61625708884688</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05860113421550094</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.206049149338374</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2024-4-25</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/video/7489748225843268886</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>290</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Gifted | Whatever the vibe, Adidas Vibe has me covered! ‘Get Comfy’ with cozy vanilla or catch the ‘Happy Feels’ with jasmine &amp; grapefruit. Which one are you feeling?</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11.72413793103448</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.03448275862069</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/video/7489438898196614422</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>513</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Outfit check ✨🤍
+#outfitinspo #springoutfit #outfitideas</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>13.64522417153996</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.28070175438596</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.364522417153996</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5847953216374269</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/photo/7489155186213047574</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yellow chrome French nails for spring 💅🏽</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12.3046875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.9375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.3671875</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/video/7489152591583153410</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Makeup was makeuping</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15.47619047619048</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.19047619047619</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/video/7488361327497465110</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>520</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Manifesting a better month for content in April ✨🤍
+#forthegirlies #microcreator #microinfluencertips</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9.038461538461538</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.076923076923077</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@summer_akram/photo/7488321289128512790</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>598</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>@Monica Vinader #monicavinader #mvinsiders #jotd</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>13.87959866220736</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.04013377926421</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.839464882943144</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.003344481605351</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7486955752720977174</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>434</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C11" t="n">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>My first ever blind box Labubu unboxing!! 🤍
 #labubuthemonsters #popmart #blindbox #unboxing</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H11" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I11" t="n">
         <v>9.216589861751153</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.4608294930875576</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L11" t="n">
         <v>0.2304147465437788</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7486871533848284438</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>196</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C12" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Finally got my first Labubu!!! ✨
 #imjustagirl</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H12" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I12" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7485881104579202326</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>707</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C13" t="n">
         <v>48</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Finally got my first Labubu!!! ✨
 #imjustagirl</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H13" t="n">
         <v>6.789250353606789</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I13" t="n">
         <v>6.789250353606789</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.2828854314002829</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7485451725046910230</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>571</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C14" t="n">
         <v>60</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>The lip combo that suits every skin tone 🖤🍯
 Black Honey Almost Lipstick &amp; Black Honey Lip &amp; Cheek Oil is my everyday go to lip combo!</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H14" t="n">
         <v>12.43432574430823</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I14" t="n">
         <v>10.50788091068301</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.926444833625219</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L14" t="n">
         <v>1.050788091068301</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7484964817984408854</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>595</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C15" t="n">
         <v>57</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D15" t="n">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Korean skincare nighttime routine for glass skin 🤍
 @YesStyle @YesStyleInfluencers @SKIN1004 US</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H15" t="n">
         <v>11.42857142857143</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I15" t="n">
         <v>9.579831932773111</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.848739495798319</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L15" t="n">
         <v>0.8403361344537815</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7483253198090816790</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B16" t="n">
         <v>562</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>60</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>#AD unwind with me thanks to @LUSH 🤍✨🫧
 #friendsoflush #lushcosmetics #gurwm #gurwmforbed #bathtime</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H16" t="n">
         <v>11.20996441281139</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I16" t="n">
         <v>10.67615658362989</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.5338078291814947</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L16" t="n">
         <v>0.7117437722419928</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7481736744258358550</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B17" t="n">
         <v>769</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C17" t="n">
         <v>56</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>AD | New bag unboxing! @katie.loxton
 Use my code “KLDTOGE3” for 15% off your purchase 🤍
 #unboxing</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H17" t="n">
         <v>8.452535760728217</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I17" t="n">
         <v>7.282184655396619</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.1703511053316</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L17" t="n">
         <v>0.9102730819245773</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7480958801173040406</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B18" t="n">
         <v>1180</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>166</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>26</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>18</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Recent PR I’ve received haul 💕
 #prhaul #makeuphaul #gifted #haulbeauty</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>16.27118644067797</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>14.06779661016949</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.203389830508474</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L18" t="n">
         <v>1.525423728813559</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7480469102251871510</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B19" t="n">
         <v>1771</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>134</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>9</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Butter milk yellow is my new obsession 💛🌼 @abercrombie
 #springoutfit #butteryellow #summeroutfit</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>9.034443817052512</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>7.56634669678148</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.468097120271033</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L19" t="n">
         <v>0.5081874647092038</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7480204146964991254</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>748</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>65</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Spring Date Outfits 🤍💐 wearing @superdry
 #outfitinspo #outfitideas #superdry #superdrycult</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H20" t="n">
         <v>9.358288770053475</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I20" t="n">
         <v>8.689839572192513</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.6684491978609626</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L20" t="n">
         <v>0.8021390374331552</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7480120963191934230</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B21" t="n">
         <v>1174</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
         <v>74</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Your sign take your bf to Go Ape
 #goape #dateideas</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H21" t="n">
         <v>6.643952299829642</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I21" t="n">
         <v>6.303236797274275</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3407155025553663</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L21" t="n">
         <v>0.08517887563884156</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7479741686638333206</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B22" t="n">
         <v>657</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>61</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Your sign take your bf to Go Ape
 #goape #dateideas</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H22" t="n">
         <v>10.35007610350076</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I22" t="n">
         <v>9.28462709284627</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.06544901065449</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L22" t="n">
         <v>0.30441400304414</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7479067879921454358</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>429</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>61</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D23" t="n">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>i am now a member of the @REFY curators programme 🤍💭 You can shop my faves using the link in my bio 🤍</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H23" t="n">
         <v>16.78321678321678</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I23" t="n">
         <v>14.21911421911422</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.564102564102564</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L23" t="n">
         <v>0.6993006993006993</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7478662367564385558</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B24" t="n">
         <v>829</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>81</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>25</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Spring is in the air - can’t wait to wear all my fave sunglasses!
 #springstyle #springsummer</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H24" t="n">
         <v>12.78648974668275</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I24" t="n">
         <v>9.7708082026538</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.015681544028951</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L24" t="n">
         <v>0.6031363088057901</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7478280149914389782</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B25" t="n">
         <v>3902</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>517</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>101</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>51</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Keep posting you never know! So lucky to have been gifted from all these brands over the past couple weeks 🤍</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H25" t="n">
         <v>15.83803177857509</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I25" t="n">
         <v>13.24961558175295</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.588416196822143</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L25" t="n">
         <v>1.307022039979498</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7478035555553447190</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B26" t="n">
         <v>797</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>74</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>12</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>7</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>I am now part of the @Monica Vinader insider program &amp; I am so excited! 🤍 I was gifted this gorgeous pendant with my boyfriends initials and the date we become official- I can’t wait to add a little photo for the final touch. You can shop the link in my bio for 20% off your purchase!</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H26" t="n">
         <v>10.79046424090339</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I26" t="n">
         <v>9.284818067754077</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.50564617314931</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L26" t="n">
         <v>0.8782936010037641</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7477904481938672918</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>442</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C27" t="n">
         <v>41</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D27" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>6</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Say goodbye to bloating with @Free Soul Mango Greens! Packed with natural ingredients to help soothe and support your digestive health. Feel lighter, happier, and refreshed!</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H27" t="n">
         <v>9.95475113122172</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>9.276018099547512</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.6787330316742082</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L27" t="n">
         <v>1.357466063348416</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7477517875687722262</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>422</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>47</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>He funds my @Jellycat obsession
 #jellycat #shopping</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>13.74407582938389</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>11.13744075829384</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.606635071090047</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L28" t="n">
         <v>0.7109004739336493</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7477163872034639126</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>889</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>44</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Your sign to get matcha green chrome nails at your next appointment 🤍💚
 #nails #nailinspo</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>5.961754780652419</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>4.949381327334083</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.012373453318335</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>0.3374578177727784</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7476823756715937046</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>826</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>71</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>9</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>7</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Love meeting new besties 🤍
 #1stofthemonth #teamwork #girlssupportgirls #girlaestheticvideo #girls</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>9.685230024213075</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>8.595641646489103</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.089588377723971</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>0.847457627118644</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7476788346136677654</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>284</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>20</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>The cup is too cute!!! @Free Soul
 AD | Gifted
 #freesoul #cleangirl #pilates #greens #bloatingtips</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>7.746478873239436</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>7.042253521126761</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7042253521126761</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>1.408450704225352</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7476036618843983126</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>1395</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>77</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>14</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>7</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>@LUSH unboxing haul, obsessed with how good these all smell 🫧
 Gifted | AD
 #lushcosmetics #poshchocolate</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>6.523297491039425</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>5.519713261648746</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.003584229390681</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>0.5017921146953405</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7475778709690092822</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>968</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>122</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>35</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>7</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Unboxing the luxury I never knew I needed Thanks @Tatcha for the glow-up for my makeup routine 💖 #TatchaGlow</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>16.21900826446281</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>12.60330578512397</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.615702479338843</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.7231404958677686</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7475696124465073430</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>351</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>24</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>These free soul goodies are on too good a offer to miss! 🤍💪🏽
 #freesoul #tiktokshop #tiktokmademebuyit</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>6.837606837606838</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.8547008547008548</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>1.13960113960114</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7475474299487276310</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>1229</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>These free soul goodies are on too good a offer to miss! 🤍💪🏽
 #freesoul #tiktokshop #tiktokmademebuyit</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>2.196908055329536</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>1.952807160292921</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.2441008950366151</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>0.3254678600488202</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7474694336538545430</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>837</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>75</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Sunsets in Greece
 #greece #hersonissos #greecetravel</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>8.960573476702509</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>8.960573476702509</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.3584229390681004</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7473952995093318934</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>1151</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>62</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>18</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Styling my high porosity hair! If you’re struggling with frizz and dryness, here’s what’s been a game-changer for me:</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>6.950477845351869</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>5.386620330147697</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.56385751520417</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>0.3475238922675934</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7473885514471378198</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>609</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>79</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>9</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>REFY lip sculpts - literally all the shades suit my skin tone which I always find super hard when it comes to finding a lip liner 🤍💭</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>15.27093596059113</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>12.97208538587849</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.298850574712644</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>1.477832512315271</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/video/7473505352470760726</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>14900</v>
-      </c>
-      <c r="C32" t="n">
-        <v>61</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Ralph’s Coffee at Bicester village 📍
-#coffee #coffeeshop #aestheticcoffeeshop</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>0.436241610738255</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.4093959731543624</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.02684563758389261</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.01342281879194631</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7473173559691463958</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>12800</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>808</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>153</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>The dreamiest hotel in Ibiza and the food was so good too! 🤍💭
 Casita Blanca 📍
 #ibiza #wheretostay</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>6.4609375</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>6.3125</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1484375</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>1.1953125</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7472736065913179414</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>2439</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>882</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>31</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>It’s well needed
 #greece #crete #hersonissos
 #ugccontentcreator #ugccontent #ugctravel</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>36.49036490364904</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>36.16236162361623</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.3280032800328003</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>1.271012710127101</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7472719517597338882</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>1148</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>160</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>7</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Jellycats and Coffee is the way to my heart 🤍
 #jellycat #jellycatcollection #jellycatcoffee</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>14.54703832752613</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>13.93728222996516</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.6097560975609756</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>1.480836236933798</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7472405694424141078</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>729</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>160</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>11</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>all a girl wants
 # giftideas #jellycat @rhode skin @Jellycat</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>23.18244170096022</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>21.94787379972565</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.234567901234568</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>1.508916323731138</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7472340456626457878</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>7245</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>77</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>20</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Chocolate and Cream outfit of the day 🤍🍩🍦
 #ootdinspo #outfitinspo #outfitideas #outfitinspiration</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>1.338854382332643</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>1.06280193236715</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.2760524499654934</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.1104209799861974</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7472081850467388694</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>1518</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>525</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>17</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>20</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>3 new jellycats to add to the collection 🤍
 #jellycat #jellycathaul</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>35.70487483530962</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>34.58498023715415</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.119894598155468</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>1.317523056653491</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7468692208955198752</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>492</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>32</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>9</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>This perfume screams girly and sophisticated - prepare for the compliments 🍒🤍
 My go to musky cherry scent 🍒</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>7.926829268292683</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>6.504065040650407</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.422764227642276</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>1.829268292682927</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7466145263279787296</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>2598</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>19</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>This is my most complimented fragrance - perfect if you love sweet warm scents 🍒🤍🍦
 #tiktokshop #fragancecollection</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>0.8083140877598153</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>0.7313317936874518</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.07698229407236336</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>0.1924557351809084</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7459873661420342561</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>696</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>87</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>24</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>10</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>I had to jump on the Miu Miu glasses trend 🤍
 gifted by Blickers
 @blickers @blickers.com</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>15.94827586206897</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>12.5</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>3.448275862068965</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>1.436781609195402</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7459087861007109408</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>817</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>50</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>14</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>You need this drink if you’re doing dry-January 🥂 @T R I P
 #trip #nonalcoholicdrink #tiktokshop</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>7.833537331701345</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>6.119951040391677</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.713586291309669</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.3671970624235006</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7438948923407928609</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>1139</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>79</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>9</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Sunday Reset 🤍 #flowers #sundayreset</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>7.726075504828797</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>6.935908691834943</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.7901668129938543</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.08779631255487269</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/photo/7423330148537126177</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>968</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>64</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>7</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>The Asos sample sale is too good to miss 😍</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>6.714876033057851</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>6.611570247933884</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1033057851239669</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>0.7231404958677686</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@summer_akram/video/7423018010450922785</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>808</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>89</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>#ibizaoldtown #ibizarecommendations #ibizathingstodo</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>11.26237623762376</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>11.01485148514852</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.2475247524752475</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.2475247524752475</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-10-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/photo/7402617855956634913</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1140</v>
-      </c>
-      <c r="C46" t="n">
-        <v>74</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Not one but TWO boo baskets 👻🎃</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6.491228070175438</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.491228070175438</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2024-10-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/video/7401922642405543200</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C47" t="n">
-        <v>111</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>11.00292112950341</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10.80817916260954</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1947419668938656</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.2921129503407984</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2024-8-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/video/7395280794744343840</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1294</v>
-      </c>
-      <c r="C48" t="n">
-        <v>70</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Puppy Yoga in Liverpool was so much fun! 🐾🤍
-#thingstodoinliverpool #puppyyoga</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5.795981452859351</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.409582689335394</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3863987635239567</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.6182380216383307</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-8-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/video/7394166799891221792</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>635</v>
-      </c>
-      <c r="C49" t="n">
-        <v>143</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Hidden waterfall hike in the Peak Discrict with the most stunning views!
-#vlog #peakdistrict</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>23.1496062992126</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22.51968503937008</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.6299212598425197</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.259842519685039</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-7-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@summer_akram/video/7390039270817402144</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1273</v>
-      </c>
-      <c r="C50" t="n">
-        <v>44</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Love &lt;3</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3.613511390416339</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.456402199528672</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.1571091908876669</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1571091908876669</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-7-22</t>
         </is>
       </c>
     </row>
